--- a/generated/vessels-in-ports.xlsx
+++ b/generated/vessels-in-ports.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -424,10 +424,10 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>ROXY [DK]</v>
+        <v>FRU.LUNDSGAARD SG17 [DK]</v>
       </c>
       <c r="B3" t="str">
-        <v>2023-05-07 12:04</v>
+        <v>2023-05-23 03:55</v>
       </c>
       <c r="C3" t="str">
         <v>---</v>
@@ -439,15 +439,15 @@
         <v>---</v>
       </c>
       <c r="F3" t="str">
-        <v>14 m</v>
+        <v>10 m</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>VANITY V [DK]</v>
+        <v>ANTARES [DK]</v>
       </c>
       <c r="B4" t="str">
-        <v>2023-05-04 17:11</v>
+        <v>2023-05-22 18:50</v>
       </c>
       <c r="C4" t="str">
         <v>---</v>
@@ -459,15 +459,15 @@
         <v>---</v>
       </c>
       <c r="F4" t="str">
-        <v>22 m</v>
+        <v>9 m</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>CHILL QUEEN [DK]</v>
+        <v>ORION [DK]</v>
       </c>
       <c r="B5" t="str">
-        <v>2023-05-03 12:29</v>
+        <v>2023-05-22 17:57</v>
       </c>
       <c r="C5" t="str">
         <v>---</v>
@@ -479,15 +479,15 @@
         <v>---</v>
       </c>
       <c r="F5" t="str">
-        <v>13 m</v>
+        <v>10 m</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>DUVE [DK]</v>
+        <v>LARA [DE]</v>
       </c>
       <c r="B6" t="str">
-        <v>2023-05-02 11:11</v>
+        <v>2023-05-22 12:38</v>
       </c>
       <c r="C6" t="str">
         <v>---</v>
@@ -499,15 +499,15 @@
         <v>---</v>
       </c>
       <c r="F6" t="str">
-        <v>10 m</v>
+        <v>15 m</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>SY IRIS - SOLOSAILOR [NO]</v>
+        <v>RESCUE MORTEN STAGE [DK]</v>
       </c>
       <c r="B7" t="str">
-        <v>2023-05-02 11:10</v>
+        <v>2023-05-22 05:39</v>
       </c>
       <c r="C7" t="str">
         <v>---</v>
@@ -519,15 +519,15 @@
         <v>---</v>
       </c>
       <c r="F7" t="str">
-        <v>12 m</v>
+        <v>16 m</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>ZELDA [DK]</v>
+        <v>SARON S158 [DK]</v>
       </c>
       <c r="B8" t="str">
-        <v>2023-04-26 18:15</v>
+        <v>2023-05-22 02:29</v>
       </c>
       <c r="C8" t="str">
         <v>---</v>
@@ -539,15 +539,15 @@
         <v>---</v>
       </c>
       <c r="F8" t="str">
-        <v>11 m</v>
+        <v>28 m</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>MHG 043 [DK]</v>
+        <v>BLUE-FIN 2 [DK]</v>
       </c>
       <c r="B9" t="str">
-        <v>2023-04-23 13:41</v>
+        <v>2023-05-21 15:12</v>
       </c>
       <c r="C9" t="str">
         <v>---</v>
@@ -559,15 +559,15 @@
         <v>---</v>
       </c>
       <c r="F9" t="str">
-        <v>5 m</v>
+        <v>10 m</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>NYMPHEA [DK]</v>
+        <v>MUDDI [DK]</v>
       </c>
       <c r="B10" t="str">
-        <v>2023-04-08 16:00</v>
+        <v>2023-05-21 13:27</v>
       </c>
       <c r="C10" t="str">
         <v>---</v>
@@ -579,15 +579,15 @@
         <v>---</v>
       </c>
       <c r="F10" t="str">
-        <v>17 m</v>
+        <v>12 m</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>HAVKATTEN [DK]</v>
+        <v>WINDRIDER III [NO]</v>
       </c>
       <c r="B11" t="str">
-        <v>2023-04-03 13:48</v>
+        <v>2023-05-21 12:38</v>
       </c>
       <c r="C11" t="str">
         <v>---</v>
@@ -604,10 +604,10 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>ESTHER JENSEN [NL]</v>
+        <v>STRAND SENIOR MOB [NO]</v>
       </c>
       <c r="B12" t="str">
-        <v>2023-04-03 12:05</v>
+        <v>2023-05-21 12:03</v>
       </c>
       <c r="C12" t="str">
         <v>---</v>
@@ -619,15 +619,15 @@
         <v>---</v>
       </c>
       <c r="F12" t="str">
-        <v>20 m</v>
+        <v>---</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>THISTLE [DK]</v>
+        <v>BELLA DIVER [DK]</v>
       </c>
       <c r="B13" t="str">
-        <v>2022-12-16 09:47</v>
+        <v>2023-05-21 11:39</v>
       </c>
       <c r="C13" t="str">
         <v>---</v>
@@ -639,15 +639,15 @@
         <v>---</v>
       </c>
       <c r="F13" t="str">
-        <v>12 m</v>
+        <v>0 m</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>X-OTIC [DK]</v>
+        <v>O 159 RANDI [DK]</v>
       </c>
       <c r="B14" t="str">
-        <v>2022-10-29 12:24</v>
+        <v>2023-05-21 11:21</v>
       </c>
       <c r="C14" t="str">
         <v>---</v>
@@ -659,15 +659,15 @@
         <v>---</v>
       </c>
       <c r="F14" t="str">
-        <v>11 m</v>
+        <v>21 m</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>SPRAY II [DK]</v>
+        <v>POLLO [DK]</v>
       </c>
       <c r="B15" t="str">
-        <v>2022-10-29 10:23</v>
+        <v>2023-05-21 08:37</v>
       </c>
       <c r="C15" t="str">
         <v>---</v>
@@ -679,15 +679,15 @@
         <v>---</v>
       </c>
       <c r="F15" t="str">
-        <v>11 m</v>
+        <v>8 m</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>SOL [DK]</v>
+        <v>S61  NORDAN [DK]</v>
       </c>
       <c r="B16" t="str">
-        <v>2022-10-27 09:48</v>
+        <v>2023-05-21 08:15</v>
       </c>
       <c r="C16" t="str">
         <v>---</v>
@@ -704,10 +704,10 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>HYBEN [DK]</v>
+        <v>HAVLIT [DK]</v>
       </c>
       <c r="B17" t="str">
-        <v>2022-10-23 12:31</v>
+        <v>2023-05-21 05:59</v>
       </c>
       <c r="C17" t="str">
         <v>---</v>
@@ -724,10 +724,10 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>ROEDHAETTE [DK]</v>
+        <v>JOY [DK]</v>
       </c>
       <c r="B18" t="str">
-        <v>2022-09-12 11:44</v>
+        <v>2023-05-20 14:35</v>
       </c>
       <c r="C18" t="str">
         <v>---</v>
@@ -739,15 +739,15 @@
         <v>---</v>
       </c>
       <c r="F18" t="str">
-        <v>8 m</v>
+        <v>0 m</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>FREJA [DK]</v>
+        <v>TUNA-BIRD [DK]</v>
       </c>
       <c r="B19" t="str">
-        <v>2022-09-11 17:16</v>
+        <v>2023-05-20 14:14</v>
       </c>
       <c r="C19" t="str">
         <v>---</v>
@@ -759,15 +759,15 @@
         <v>---</v>
       </c>
       <c r="F19" t="str">
-        <v>0 m</v>
+        <v>9 m</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>JAMULI [DK]</v>
+        <v>DOLCE VITA [DK]</v>
       </c>
       <c r="B20" t="str">
-        <v>2022-08-28 09:12</v>
+        <v>2023-05-20 13:35</v>
       </c>
       <c r="C20" t="str">
         <v>---</v>
@@ -779,15 +779,15 @@
         <v>---</v>
       </c>
       <c r="F20" t="str">
-        <v>12 m</v>
+        <v>7 m</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>MARLEN [DK]</v>
+        <v>OBERON [DK]</v>
       </c>
       <c r="B21" t="str">
-        <v>2022-08-20 19:11</v>
+        <v>2023-05-20 12:10</v>
       </c>
       <c r="C21" t="str">
         <v>---</v>
@@ -799,15 +799,15 @@
         <v>---</v>
       </c>
       <c r="F21" t="str">
-        <v>15 m</v>
+        <v>17 m</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>ABYGAIL [DK]</v>
+        <v>BLOEKK [DK]</v>
       </c>
       <c r="B22" t="str">
-        <v>2022-08-13 15:59</v>
+        <v>2023-05-20 09:34</v>
       </c>
       <c r="C22" t="str">
         <v>---</v>
@@ -819,15 +819,15 @@
         <v>---</v>
       </c>
       <c r="F22" t="str">
-        <v>0 m</v>
+        <v>10 m</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>SJIF [DK]</v>
+        <v>PAKALOLO II [NO]</v>
       </c>
       <c r="B23" t="str">
-        <v>2022-08-13 13:17</v>
+        <v>2023-05-19 19:50</v>
       </c>
       <c r="C23" t="str">
         <v>---</v>
@@ -839,15 +839,15 @@
         <v>---</v>
       </c>
       <c r="F23" t="str">
-        <v>10 m</v>
+        <v>9 m</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>ESTHER JENSEN [DK]</v>
+        <v>SKAWLINK 1 [DK]</v>
       </c>
       <c r="B24" t="str">
-        <v>---</v>
+        <v>2023-05-19 15:32</v>
       </c>
       <c r="C24" t="str">
         <v>---</v>
@@ -856,15 +856,18 @@
         <v>---</v>
       </c>
       <c r="E24" t="str">
-        <v>20 m</v>
+        <v>---</v>
+      </c>
+      <c r="F24" t="str">
+        <v>12 m</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>AIDAMAR TB 15 [IT]</v>
+        <v>CHRISTIAN I GROTINUM [FO]</v>
       </c>
       <c r="B25" t="str">
-        <v>---</v>
+        <v>2023-05-18 20:54</v>
       </c>
       <c r="C25" t="str">
         <v>---</v>
@@ -874,14 +877,17 @@
       </c>
       <c r="E25" t="str">
         <v>---</v>
+      </c>
+      <c r="F25" t="str">
+        <v>89 m</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>FOUR SONS [DK]</v>
+        <v>NJORD [DK]</v>
       </c>
       <c r="B26" t="str">
-        <v>---</v>
+        <v>2023-05-18 13:18</v>
       </c>
       <c r="C26" t="str">
         <v>---</v>
@@ -890,15 +896,18 @@
         <v>---</v>
       </c>
       <c r="E26" t="str">
-        <v>0 m</v>
+        <v>---</v>
+      </c>
+      <c r="F26" t="str">
+        <v>11 m</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>JASMIN [DK]</v>
+        <v>LOKE [DK]</v>
       </c>
       <c r="B27" t="str">
-        <v>---</v>
+        <v>2023-05-17 21:51</v>
       </c>
       <c r="C27" t="str">
         <v>---</v>
@@ -907,15 +916,18 @@
         <v>---</v>
       </c>
       <c r="E27" t="str">
-        <v>11 m</v>
+        <v>---</v>
+      </c>
+      <c r="F27" t="str">
+        <v>15 m</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>ROXY [DK]</v>
+        <v>NORDSKOV AS238 [DK]</v>
       </c>
       <c r="B28" t="str">
-        <v>2023-05-07 12:04</v>
+        <v>2023-05-15 01:33</v>
       </c>
       <c r="C28" t="str">
         <v>---</v>
@@ -927,35 +939,35 @@
         <v>---</v>
       </c>
       <c r="F28" t="str">
-        <v>14 m</v>
+        <v>20 m</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>VANITY V [DK]</v>
+        <v>MARGRET [IS]</v>
       </c>
       <c r="B29" t="str">
-        <v>2023-05-04 17:11</v>
+        <v>2023-05-14 18:11</v>
       </c>
       <c r="C29" t="str">
-        <v>---</v>
+        <v>2,990 Tons</v>
       </c>
       <c r="D29" t="str">
-        <v>---</v>
+        <v>2,411 Tons</v>
       </c>
       <c r="E29" t="str">
-        <v>---</v>
+        <v>2007</v>
       </c>
       <c r="F29" t="str">
-        <v>22 m</v>
+        <v>72 m</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>CHILL QUEEN [DK]</v>
+        <v>STRAND SENIOR [NO]</v>
       </c>
       <c r="B30" t="str">
-        <v>2023-05-03 12:29</v>
+        <v>2023-05-14 15:59</v>
       </c>
       <c r="C30" t="str">
         <v>---</v>
@@ -967,15 +979,15 @@
         <v>---</v>
       </c>
       <c r="F30" t="str">
-        <v>13 m</v>
+        <v>75 m</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>DUVE [DK]</v>
+        <v>JOHANNE BACH [DK]</v>
       </c>
       <c r="B31" t="str">
-        <v>2023-05-02 11:11</v>
+        <v>2023-05-13 14:58</v>
       </c>
       <c r="C31" t="str">
         <v>---</v>
@@ -987,15 +999,15 @@
         <v>---</v>
       </c>
       <c r="F31" t="str">
-        <v>10 m</v>
+        <v>8 m</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>SY IRIS - SOLOSAILOR [NO]</v>
+        <v>LET' S SEA [DK]</v>
       </c>
       <c r="B32" t="str">
-        <v>2023-05-02 11:10</v>
+        <v>2023-05-13 12:52</v>
       </c>
       <c r="C32" t="str">
         <v>---</v>
@@ -1007,15 +1019,15 @@
         <v>---</v>
       </c>
       <c r="F32" t="str">
-        <v>12 m</v>
+        <v>8 m</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>ZELDA [DK]</v>
+        <v>OKSOE [DK]</v>
       </c>
       <c r="B33" t="str">
-        <v>2023-04-26 18:15</v>
+        <v>2023-05-13 07:27</v>
       </c>
       <c r="C33" t="str">
         <v>---</v>
@@ -1027,35 +1039,35 @@
         <v>---</v>
       </c>
       <c r="F33" t="str">
-        <v>11 m</v>
+        <v>7 m</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>MHG 043 [DK]</v>
+        <v>STONEWELL UNITY [LR]</v>
       </c>
       <c r="B34" t="str">
-        <v>2023-04-23 13:41</v>
+        <v>2023-05-09 04:16</v>
       </c>
       <c r="C34" t="str">
-        <v>---</v>
+        <v>33,217 Tons</v>
       </c>
       <c r="D34" t="str">
-        <v>---</v>
+        <v>22,863 Tons</v>
       </c>
       <c r="E34" t="str">
-        <v>---</v>
+        <v>2012</v>
       </c>
       <c r="F34" t="str">
-        <v>5 m</v>
+        <v>178 m</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>NYMPHEA [DK]</v>
+        <v>MINGE [LT]</v>
       </c>
       <c r="B35" t="str">
-        <v>2023-04-08 16:00</v>
+        <v>2023-05-04 09:51</v>
       </c>
       <c r="C35" t="str">
         <v>---</v>
@@ -1067,55 +1079,55 @@
         <v>---</v>
       </c>
       <c r="F35" t="str">
-        <v>17 m</v>
+        <v>37 m</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>HAVKATTEN [DK]</v>
+        <v>GILIJA [LT]</v>
       </c>
       <c r="B36" t="str">
-        <v>2023-04-03 13:48</v>
+        <v>2023-05-02 12:50</v>
       </c>
       <c r="C36" t="str">
         <v>---</v>
       </c>
       <c r="D36" t="str">
-        <v>---</v>
+        <v>543 Tons</v>
       </c>
       <c r="E36" t="str">
-        <v>---</v>
+        <v>1969</v>
       </c>
       <c r="F36" t="str">
-        <v>13 m</v>
+        <v>50 m</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>ESTHER JENSEN [NL]</v>
+        <v>NEPTUNE [IE]</v>
       </c>
       <c r="B37" t="str">
-        <v>2023-04-03 12:05</v>
+        <v>2023-05-01 13:24</v>
       </c>
       <c r="C37" t="str">
-        <v>---</v>
+        <v>800 Tons</v>
       </c>
       <c r="D37" t="str">
-        <v>---</v>
+        <v>798 Tons</v>
       </c>
       <c r="E37" t="str">
-        <v>---</v>
+        <v>2003</v>
       </c>
       <c r="F37" t="str">
-        <v>20 m</v>
+        <v>40 m</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>THISTLE [DK]</v>
+        <v>TOVE [LT]</v>
       </c>
       <c r="B38" t="str">
-        <v>2022-12-16 09:47</v>
+        <v>2023-04-28 02:27</v>
       </c>
       <c r="C38" t="str">
         <v>---</v>
@@ -1127,15 +1139,15 @@
         <v>---</v>
       </c>
       <c r="F38" t="str">
-        <v>12 m</v>
+        <v>33 m</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>X-OTIC [DK]</v>
+        <v>HAVFJORD [NO]</v>
       </c>
       <c r="B39" t="str">
-        <v>2022-10-29 12:24</v>
+        <v>2023-04-25 04:21</v>
       </c>
       <c r="C39" t="str">
         <v>---</v>
@@ -1147,15 +1159,15 @@
         <v>---</v>
       </c>
       <c r="F39" t="str">
-        <v>11 m</v>
+        <v>36 m</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>SPRAY II [DK]</v>
+        <v>SKAWLINK 3 [DK]</v>
       </c>
       <c r="B40" t="str">
-        <v>2022-10-29 10:23</v>
+        <v>2023-04-23 16:27</v>
       </c>
       <c r="C40" t="str">
         <v>---</v>
@@ -1167,15 +1179,15 @@
         <v>---</v>
       </c>
       <c r="F40" t="str">
-        <v>11 m</v>
+        <v>21 m</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>SOL [DK]</v>
+        <v>CECILIE [DK]</v>
       </c>
       <c r="B41" t="str">
-        <v>2022-10-27 09:48</v>
+        <v>2023-04-15 21:45</v>
       </c>
       <c r="C41" t="str">
         <v>---</v>
@@ -1192,50 +1204,50 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>HYBEN [DK]</v>
+        <v>ELLEN BACH [DE]</v>
       </c>
       <c r="B42" t="str">
-        <v>2022-10-23 12:31</v>
+        <v>2023-04-14 13:46</v>
       </c>
       <c r="C42" t="str">
         <v>---</v>
       </c>
       <c r="D42" t="str">
-        <v>---</v>
+        <v>759 Tons</v>
       </c>
       <c r="E42" t="str">
-        <v>---</v>
+        <v>1999</v>
       </c>
       <c r="F42" t="str">
-        <v>7 m</v>
+        <v>50 m</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>ROEDHAETTE [DK]</v>
+        <v>LEINEBJOERN [NO]</v>
       </c>
       <c r="B43" t="str">
-        <v>2022-09-12 11:44</v>
+        <v>2023-04-13 09:37</v>
       </c>
       <c r="C43" t="str">
-        <v>---</v>
+        <v>2,500 Tons</v>
       </c>
       <c r="D43" t="str">
-        <v>---</v>
+        <v>1,828 Tons</v>
       </c>
       <c r="E43" t="str">
-        <v>---</v>
+        <v>2012</v>
       </c>
       <c r="F43" t="str">
-        <v>8 m</v>
+        <v>68 m</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>FREJA [DK]</v>
+        <v>STEINEVIK [NO]</v>
       </c>
       <c r="B44" t="str">
-        <v>2022-09-11 17:16</v>
+        <v>2023-04-11 09:35</v>
       </c>
       <c r="C44" t="str">
         <v>---</v>
@@ -1247,15 +1259,15 @@
         <v>---</v>
       </c>
       <c r="F44" t="str">
-        <v>0 m</v>
+        <v>72 m</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>JAMULI [DK]</v>
+        <v>VOYAGER [GB]</v>
       </c>
       <c r="B45" t="str">
-        <v>2022-08-28 09:12</v>
+        <v>2023-04-10 13:59</v>
       </c>
       <c r="C45" t="str">
         <v>---</v>
@@ -1267,15 +1279,15 @@
         <v>---</v>
       </c>
       <c r="F45" t="str">
-        <v>12 m</v>
+        <v>87 m</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>MARLEN [DK]</v>
+        <v>SALTY [DK]</v>
       </c>
       <c r="B46" t="str">
-        <v>2022-08-20 19:11</v>
+        <v>2023-04-06 01:03</v>
       </c>
       <c r="C46" t="str">
         <v>---</v>
@@ -1287,15 +1299,15 @@
         <v>---</v>
       </c>
       <c r="F46" t="str">
-        <v>15 m</v>
+        <v>10 m</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>ABYGAIL [DK]</v>
+        <v>MARIE FN 548 [DK]</v>
       </c>
       <c r="B47" t="str">
-        <v>2022-08-13 15:59</v>
+        <v>2023-03-28 16:05</v>
       </c>
       <c r="C47" t="str">
         <v>---</v>
@@ -1307,15 +1319,15 @@
         <v>---</v>
       </c>
       <c r="F47" t="str">
-        <v>0 m</v>
+        <v>10 m</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>SJIF [DK]</v>
+        <v>AINE [IE]</v>
       </c>
       <c r="B48" t="str">
-        <v>2022-08-13 13:17</v>
+        <v>2023-03-23 01:50</v>
       </c>
       <c r="C48" t="str">
         <v>---</v>
@@ -1327,15 +1339,15 @@
         <v>---</v>
       </c>
       <c r="F48" t="str">
-        <v>10 m</v>
+        <v>57 m</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>ESTHER JENSEN [DK]</v>
+        <v>ALTAIRE [GB]</v>
       </c>
       <c r="B49" t="str">
-        <v>---</v>
+        <v>2023-03-16 23:30</v>
       </c>
       <c r="C49" t="str">
         <v>---</v>
@@ -1344,15 +1356,18 @@
         <v>---</v>
       </c>
       <c r="E49" t="str">
-        <v>20 m</v>
+        <v>---</v>
+      </c>
+      <c r="F49" t="str">
+        <v>80 m</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>AIDAMAR TB 15 [IT]</v>
+        <v>PERNILLE [DK]</v>
       </c>
       <c r="B50" t="str">
-        <v>---</v>
+        <v>2023-03-02 12:12</v>
       </c>
       <c r="C50" t="str">
         <v>---</v>
@@ -1362,14 +1377,17 @@
       </c>
       <c r="E50" t="str">
         <v>---</v>
+      </c>
+      <c r="F50" t="str">
+        <v>7 m</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>JASMIN [DK]</v>
+        <v>SERENE [GB]</v>
       </c>
       <c r="B51" t="str">
-        <v>---</v>
+        <v>2023-02-28 18:50</v>
       </c>
       <c r="C51" t="str">
         <v>---</v>
@@ -1378,32 +1396,38 @@
         <v>---</v>
       </c>
       <c r="E51" t="str">
-        <v>11 m</v>
+        <v>---</v>
+      </c>
+      <c r="F51" t="str">
+        <v>82 m</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>FOUR SONS [DK]</v>
+        <v>CATTLEYA [DK]</v>
       </c>
       <c r="B52" t="str">
-        <v>---</v>
+        <v>2023-02-10 16:37</v>
       </c>
       <c r="C52" t="str">
-        <v>---</v>
+        <v>2,500 Tons</v>
       </c>
       <c r="D52" t="str">
-        <v>---</v>
+        <v>1,950 Tons</v>
       </c>
       <c r="E52" t="str">
-        <v>0 m</v>
+        <v>2013</v>
+      </c>
+      <c r="F52" t="str">
+        <v>70 m</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>ROXY [DK]</v>
+        <v>FRU.LUNDSGAARD SG17 [DK]</v>
       </c>
       <c r="B53" t="str">
-        <v>2023-05-07 12:04</v>
+        <v>2023-05-23 03:55</v>
       </c>
       <c r="C53" t="str">
         <v>---</v>
@@ -1415,15 +1439,15 @@
         <v>---</v>
       </c>
       <c r="F53" t="str">
-        <v>14 m</v>
+        <v>10 m</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>VANITY V [DK]</v>
+        <v>ANTARES [DK]</v>
       </c>
       <c r="B54" t="str">
-        <v>2023-05-04 17:11</v>
+        <v>2023-05-22 18:50</v>
       </c>
       <c r="C54" t="str">
         <v>---</v>
@@ -1435,15 +1459,15 @@
         <v>---</v>
       </c>
       <c r="F54" t="str">
-        <v>22 m</v>
+        <v>9 m</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>CHILL QUEEN [DK]</v>
+        <v>ORION [DK]</v>
       </c>
       <c r="B55" t="str">
-        <v>2023-05-03 12:29</v>
+        <v>2023-05-22 17:57</v>
       </c>
       <c r="C55" t="str">
         <v>---</v>
@@ -1455,15 +1479,15 @@
         <v>---</v>
       </c>
       <c r="F55" t="str">
-        <v>13 m</v>
+        <v>10 m</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>DUVE [DK]</v>
+        <v>LARA [DE]</v>
       </c>
       <c r="B56" t="str">
-        <v>2023-05-02 11:11</v>
+        <v>2023-05-22 12:38</v>
       </c>
       <c r="C56" t="str">
         <v>---</v>
@@ -1475,15 +1499,15 @@
         <v>---</v>
       </c>
       <c r="F56" t="str">
-        <v>10 m</v>
+        <v>15 m</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>SY IRIS - SOLOSAILOR [NO]</v>
+        <v>RESCUE MORTEN STAGE [DK]</v>
       </c>
       <c r="B57" t="str">
-        <v>2023-05-02 11:10</v>
+        <v>2023-05-22 05:39</v>
       </c>
       <c r="C57" t="str">
         <v>---</v>
@@ -1495,15 +1519,15 @@
         <v>---</v>
       </c>
       <c r="F57" t="str">
-        <v>12 m</v>
+        <v>16 m</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>ZELDA [DK]</v>
+        <v>SARON S158 [DK]</v>
       </c>
       <c r="B58" t="str">
-        <v>2023-04-26 18:15</v>
+        <v>2023-05-22 02:29</v>
       </c>
       <c r="C58" t="str">
         <v>---</v>
@@ -1515,15 +1539,15 @@
         <v>---</v>
       </c>
       <c r="F58" t="str">
-        <v>11 m</v>
+        <v>28 m</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>MHG 043 [DK]</v>
+        <v>BLUE-FIN 2 [DK]</v>
       </c>
       <c r="B59" t="str">
-        <v>2023-04-23 13:41</v>
+        <v>2023-05-21 15:12</v>
       </c>
       <c r="C59" t="str">
         <v>---</v>
@@ -1535,15 +1559,15 @@
         <v>---</v>
       </c>
       <c r="F59" t="str">
-        <v>5 m</v>
+        <v>10 m</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>NYMPHEA [DK]</v>
+        <v>MUDDI [DK]</v>
       </c>
       <c r="B60" t="str">
-        <v>2023-04-08 16:00</v>
+        <v>2023-05-21 13:27</v>
       </c>
       <c r="C60" t="str">
         <v>---</v>
@@ -1555,15 +1579,15 @@
         <v>---</v>
       </c>
       <c r="F60" t="str">
-        <v>17 m</v>
+        <v>12 m</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>HAVKATTEN [DK]</v>
+        <v>WINDRIDER III [NO]</v>
       </c>
       <c r="B61" t="str">
-        <v>2023-04-03 13:48</v>
+        <v>2023-05-21 12:38</v>
       </c>
       <c r="C61" t="str">
         <v>---</v>
@@ -1580,10 +1604,10 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>ESTHER JENSEN [NL]</v>
+        <v>STRAND SENIOR MOB [NO]</v>
       </c>
       <c r="B62" t="str">
-        <v>2023-04-03 12:05</v>
+        <v>2023-05-21 12:03</v>
       </c>
       <c r="C62" t="str">
         <v>---</v>
@@ -1595,15 +1619,15 @@
         <v>---</v>
       </c>
       <c r="F62" t="str">
-        <v>20 m</v>
+        <v>---</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>THISTLE [DK]</v>
+        <v>BELLA DIVER [DK]</v>
       </c>
       <c r="B63" t="str">
-        <v>2022-12-16 09:47</v>
+        <v>2023-05-21 11:39</v>
       </c>
       <c r="C63" t="str">
         <v>---</v>
@@ -1615,15 +1639,15 @@
         <v>---</v>
       </c>
       <c r="F63" t="str">
-        <v>12 m</v>
+        <v>0 m</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>X-OTIC [DK]</v>
+        <v>O 159 RANDI [DK]</v>
       </c>
       <c r="B64" t="str">
-        <v>2022-10-29 12:24</v>
+        <v>2023-05-21 11:21</v>
       </c>
       <c r="C64" t="str">
         <v>---</v>
@@ -1635,15 +1659,15 @@
         <v>---</v>
       </c>
       <c r="F64" t="str">
-        <v>11 m</v>
+        <v>21 m</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>SPRAY II [DK]</v>
+        <v>POLLO [DK]</v>
       </c>
       <c r="B65" t="str">
-        <v>2022-10-29 10:23</v>
+        <v>2023-05-21 08:37</v>
       </c>
       <c r="C65" t="str">
         <v>---</v>
@@ -1655,15 +1679,15 @@
         <v>---</v>
       </c>
       <c r="F65" t="str">
-        <v>11 m</v>
+        <v>8 m</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>SOL [DK]</v>
+        <v>S61  NORDAN [DK]</v>
       </c>
       <c r="B66" t="str">
-        <v>2022-10-27 09:48</v>
+        <v>2023-05-21 08:15</v>
       </c>
       <c r="C66" t="str">
         <v>---</v>
@@ -1680,10 +1704,10 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>HYBEN [DK]</v>
+        <v>HAVLIT [DK]</v>
       </c>
       <c r="B67" t="str">
-        <v>2022-10-23 12:31</v>
+        <v>2023-05-21 05:59</v>
       </c>
       <c r="C67" t="str">
         <v>---</v>
@@ -1700,10 +1724,10 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>ROEDHAETTE [DK]</v>
+        <v>JOY [DK]</v>
       </c>
       <c r="B68" t="str">
-        <v>2022-09-12 11:44</v>
+        <v>2023-05-20 14:35</v>
       </c>
       <c r="C68" t="str">
         <v>---</v>
@@ -1715,15 +1739,15 @@
         <v>---</v>
       </c>
       <c r="F68" t="str">
-        <v>8 m</v>
+        <v>0 m</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>FREJA [DK]</v>
+        <v>TUNA-BIRD [DK]</v>
       </c>
       <c r="B69" t="str">
-        <v>2022-09-11 17:16</v>
+        <v>2023-05-20 14:14</v>
       </c>
       <c r="C69" t="str">
         <v>---</v>
@@ -1735,15 +1759,15 @@
         <v>---</v>
       </c>
       <c r="F69" t="str">
-        <v>0 m</v>
+        <v>9 m</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>JAMULI [DK]</v>
+        <v>DOLCE VITA [DK]</v>
       </c>
       <c r="B70" t="str">
-        <v>2022-08-28 09:12</v>
+        <v>2023-05-20 13:35</v>
       </c>
       <c r="C70" t="str">
         <v>---</v>
@@ -1755,15 +1779,15 @@
         <v>---</v>
       </c>
       <c r="F70" t="str">
-        <v>12 m</v>
+        <v>7 m</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>MARLEN [DK]</v>
+        <v>OBERON [DK]</v>
       </c>
       <c r="B71" t="str">
-        <v>2022-08-20 19:11</v>
+        <v>2023-05-20 12:10</v>
       </c>
       <c r="C71" t="str">
         <v>---</v>
@@ -1775,15 +1799,15 @@
         <v>---</v>
       </c>
       <c r="F71" t="str">
-        <v>15 m</v>
+        <v>17 m</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>ABYGAIL [DK]</v>
+        <v>BLOEKK [DK]</v>
       </c>
       <c r="B72" t="str">
-        <v>2022-08-13 15:59</v>
+        <v>2023-05-20 09:34</v>
       </c>
       <c r="C72" t="str">
         <v>---</v>
@@ -1795,15 +1819,15 @@
         <v>---</v>
       </c>
       <c r="F72" t="str">
-        <v>0 m</v>
+        <v>10 m</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>SJIF [DK]</v>
+        <v>PAKALOLO II [NO]</v>
       </c>
       <c r="B73" t="str">
-        <v>2022-08-13 13:17</v>
+        <v>2023-05-19 19:50</v>
       </c>
       <c r="C73" t="str">
         <v>---</v>
@@ -1815,15 +1839,15 @@
         <v>---</v>
       </c>
       <c r="F73" t="str">
-        <v>10 m</v>
+        <v>9 m</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>ESTHER JENSEN [DK]</v>
+        <v>SKAWLINK 1 [DK]</v>
       </c>
       <c r="B74" t="str">
-        <v>---</v>
+        <v>2023-05-19 15:32</v>
       </c>
       <c r="C74" t="str">
         <v>---</v>
@@ -1832,15 +1856,18 @@
         <v>---</v>
       </c>
       <c r="E74" t="str">
-        <v>20 m</v>
+        <v>---</v>
+      </c>
+      <c r="F74" t="str">
+        <v>12 m</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>AIDAMAR TB 15 [IT]</v>
+        <v>CHRISTIAN I GROTINUM [FO]</v>
       </c>
       <c r="B75" t="str">
-        <v>---</v>
+        <v>2023-05-18 20:54</v>
       </c>
       <c r="C75" t="str">
         <v>---</v>
@@ -1850,14 +1877,17 @@
       </c>
       <c r="E75" t="str">
         <v>---</v>
+      </c>
+      <c r="F75" t="str">
+        <v>89 m</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>FOUR SONS [DK]</v>
+        <v>NJORD [DK]</v>
       </c>
       <c r="B76" t="str">
-        <v>---</v>
+        <v>2023-05-18 13:18</v>
       </c>
       <c r="C76" t="str">
         <v>---</v>
@@ -1866,15 +1896,18 @@
         <v>---</v>
       </c>
       <c r="E76" t="str">
-        <v>0 m</v>
+        <v>---</v>
+      </c>
+      <c r="F76" t="str">
+        <v>11 m</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>JASMIN [DK]</v>
+        <v>LOKE [DK]</v>
       </c>
       <c r="B77" t="str">
-        <v>---</v>
+        <v>2023-05-17 21:51</v>
       </c>
       <c r="C77" t="str">
         <v>---</v>
@@ -1883,12 +1916,515 @@
         <v>---</v>
       </c>
       <c r="E77" t="str">
-        <v>11 m</v>
+        <v>---</v>
+      </c>
+      <c r="F77" t="str">
+        <v>15 m</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>NORDSKOV AS238 [DK]</v>
+      </c>
+      <c r="B78" t="str">
+        <v>2023-05-15 01:33</v>
+      </c>
+      <c r="C78" t="str">
+        <v>---</v>
+      </c>
+      <c r="D78" t="str">
+        <v>---</v>
+      </c>
+      <c r="E78" t="str">
+        <v>---</v>
+      </c>
+      <c r="F78" t="str">
+        <v>20 m</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>MARGRET [IS]</v>
+      </c>
+      <c r="B79" t="str">
+        <v>2023-05-14 18:11</v>
+      </c>
+      <c r="C79" t="str">
+        <v>2,990 Tons</v>
+      </c>
+      <c r="D79" t="str">
+        <v>2,411 Tons</v>
+      </c>
+      <c r="E79" t="str">
+        <v>2007</v>
+      </c>
+      <c r="F79" t="str">
+        <v>72 m</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>STRAND SENIOR [NO]</v>
+      </c>
+      <c r="B80" t="str">
+        <v>2023-05-14 15:59</v>
+      </c>
+      <c r="C80" t="str">
+        <v>---</v>
+      </c>
+      <c r="D80" t="str">
+        <v>---</v>
+      </c>
+      <c r="E80" t="str">
+        <v>---</v>
+      </c>
+      <c r="F80" t="str">
+        <v>75 m</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>JOHANNE BACH [DK]</v>
+      </c>
+      <c r="B81" t="str">
+        <v>2023-05-13 14:58</v>
+      </c>
+      <c r="C81" t="str">
+        <v>---</v>
+      </c>
+      <c r="D81" t="str">
+        <v>---</v>
+      </c>
+      <c r="E81" t="str">
+        <v>---</v>
+      </c>
+      <c r="F81" t="str">
+        <v>8 m</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>LET' S SEA [DK]</v>
+      </c>
+      <c r="B82" t="str">
+        <v>2023-05-13 12:52</v>
+      </c>
+      <c r="C82" t="str">
+        <v>---</v>
+      </c>
+      <c r="D82" t="str">
+        <v>---</v>
+      </c>
+      <c r="E82" t="str">
+        <v>---</v>
+      </c>
+      <c r="F82" t="str">
+        <v>8 m</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>OKSOE [DK]</v>
+      </c>
+      <c r="B83" t="str">
+        <v>2023-05-13 07:27</v>
+      </c>
+      <c r="C83" t="str">
+        <v>---</v>
+      </c>
+      <c r="D83" t="str">
+        <v>---</v>
+      </c>
+      <c r="E83" t="str">
+        <v>---</v>
+      </c>
+      <c r="F83" t="str">
+        <v>7 m</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>STONEWELL UNITY [LR]</v>
+      </c>
+      <c r="B84" t="str">
+        <v>2023-05-09 04:16</v>
+      </c>
+      <c r="C84" t="str">
+        <v>33,217 Tons</v>
+      </c>
+      <c r="D84" t="str">
+        <v>22,863 Tons</v>
+      </c>
+      <c r="E84" t="str">
+        <v>2012</v>
+      </c>
+      <c r="F84" t="str">
+        <v>178 m</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>MINGE [LT]</v>
+      </c>
+      <c r="B85" t="str">
+        <v>2023-05-04 09:51</v>
+      </c>
+      <c r="C85" t="str">
+        <v>---</v>
+      </c>
+      <c r="D85" t="str">
+        <v>---</v>
+      </c>
+      <c r="E85" t="str">
+        <v>---</v>
+      </c>
+      <c r="F85" t="str">
+        <v>37 m</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>GILIJA [LT]</v>
+      </c>
+      <c r="B86" t="str">
+        <v>2023-05-02 12:50</v>
+      </c>
+      <c r="C86" t="str">
+        <v>---</v>
+      </c>
+      <c r="D86" t="str">
+        <v>543 Tons</v>
+      </c>
+      <c r="E86" t="str">
+        <v>1969</v>
+      </c>
+      <c r="F86" t="str">
+        <v>50 m</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>NEPTUNE [IE]</v>
+      </c>
+      <c r="B87" t="str">
+        <v>2023-05-01 13:24</v>
+      </c>
+      <c r="C87" t="str">
+        <v>800 Tons</v>
+      </c>
+      <c r="D87" t="str">
+        <v>798 Tons</v>
+      </c>
+      <c r="E87" t="str">
+        <v>2003</v>
+      </c>
+      <c r="F87" t="str">
+        <v>40 m</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>TOVE [LT]</v>
+      </c>
+      <c r="B88" t="str">
+        <v>2023-04-28 02:27</v>
+      </c>
+      <c r="C88" t="str">
+        <v>---</v>
+      </c>
+      <c r="D88" t="str">
+        <v>---</v>
+      </c>
+      <c r="E88" t="str">
+        <v>---</v>
+      </c>
+      <c r="F88" t="str">
+        <v>33 m</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>HAVFJORD [NO]</v>
+      </c>
+      <c r="B89" t="str">
+        <v>2023-04-25 04:21</v>
+      </c>
+      <c r="C89" t="str">
+        <v>---</v>
+      </c>
+      <c r="D89" t="str">
+        <v>---</v>
+      </c>
+      <c r="E89" t="str">
+        <v>---</v>
+      </c>
+      <c r="F89" t="str">
+        <v>36 m</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>SKAWLINK 3 [DK]</v>
+      </c>
+      <c r="B90" t="str">
+        <v>2023-04-23 16:27</v>
+      </c>
+      <c r="C90" t="str">
+        <v>---</v>
+      </c>
+      <c r="D90" t="str">
+        <v>---</v>
+      </c>
+      <c r="E90" t="str">
+        <v>---</v>
+      </c>
+      <c r="F90" t="str">
+        <v>21 m</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>CECILIE [DK]</v>
+      </c>
+      <c r="B91" t="str">
+        <v>2023-04-15 21:45</v>
+      </c>
+      <c r="C91" t="str">
+        <v>---</v>
+      </c>
+      <c r="D91" t="str">
+        <v>---</v>
+      </c>
+      <c r="E91" t="str">
+        <v>---</v>
+      </c>
+      <c r="F91" t="str">
+        <v>8 m</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>ELLEN BACH [DE]</v>
+      </c>
+      <c r="B92" t="str">
+        <v>2023-04-14 13:46</v>
+      </c>
+      <c r="C92" t="str">
+        <v>---</v>
+      </c>
+      <c r="D92" t="str">
+        <v>759 Tons</v>
+      </c>
+      <c r="E92" t="str">
+        <v>1999</v>
+      </c>
+      <c r="F92" t="str">
+        <v>50 m</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>LEINEBJOERN [NO]</v>
+      </c>
+      <c r="B93" t="str">
+        <v>2023-04-13 09:37</v>
+      </c>
+      <c r="C93" t="str">
+        <v>2,500 Tons</v>
+      </c>
+      <c r="D93" t="str">
+        <v>1,828 Tons</v>
+      </c>
+      <c r="E93" t="str">
+        <v>2012</v>
+      </c>
+      <c r="F93" t="str">
+        <v>68 m</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>STEINEVIK [NO]</v>
+      </c>
+      <c r="B94" t="str">
+        <v>2023-04-11 09:35</v>
+      </c>
+      <c r="C94" t="str">
+        <v>---</v>
+      </c>
+      <c r="D94" t="str">
+        <v>---</v>
+      </c>
+      <c r="E94" t="str">
+        <v>---</v>
+      </c>
+      <c r="F94" t="str">
+        <v>72 m</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>VOYAGER [GB]</v>
+      </c>
+      <c r="B95" t="str">
+        <v>2023-04-10 13:59</v>
+      </c>
+      <c r="C95" t="str">
+        <v>---</v>
+      </c>
+      <c r="D95" t="str">
+        <v>---</v>
+      </c>
+      <c r="E95" t="str">
+        <v>---</v>
+      </c>
+      <c r="F95" t="str">
+        <v>87 m</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>SALTY [DK]</v>
+      </c>
+      <c r="B96" t="str">
+        <v>2023-04-06 01:03</v>
+      </c>
+      <c r="C96" t="str">
+        <v>---</v>
+      </c>
+      <c r="D96" t="str">
+        <v>---</v>
+      </c>
+      <c r="E96" t="str">
+        <v>---</v>
+      </c>
+      <c r="F96" t="str">
+        <v>10 m</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>MARIE FN 548 [DK]</v>
+      </c>
+      <c r="B97" t="str">
+        <v>2023-03-28 16:05</v>
+      </c>
+      <c r="C97" t="str">
+        <v>---</v>
+      </c>
+      <c r="D97" t="str">
+        <v>---</v>
+      </c>
+      <c r="E97" t="str">
+        <v>---</v>
+      </c>
+      <c r="F97" t="str">
+        <v>10 m</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>AINE [IE]</v>
+      </c>
+      <c r="B98" t="str">
+        <v>2023-03-23 01:50</v>
+      </c>
+      <c r="C98" t="str">
+        <v>---</v>
+      </c>
+      <c r="D98" t="str">
+        <v>---</v>
+      </c>
+      <c r="E98" t="str">
+        <v>---</v>
+      </c>
+      <c r="F98" t="str">
+        <v>57 m</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>ALTAIRE [GB]</v>
+      </c>
+      <c r="B99" t="str">
+        <v>2023-03-16 23:30</v>
+      </c>
+      <c r="C99" t="str">
+        <v>---</v>
+      </c>
+      <c r="D99" t="str">
+        <v>---</v>
+      </c>
+      <c r="E99" t="str">
+        <v>---</v>
+      </c>
+      <c r="F99" t="str">
+        <v>80 m</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>PERNILLE [DK]</v>
+      </c>
+      <c r="B100" t="str">
+        <v>2023-03-02 12:12</v>
+      </c>
+      <c r="C100" t="str">
+        <v>---</v>
+      </c>
+      <c r="D100" t="str">
+        <v>---</v>
+      </c>
+      <c r="E100" t="str">
+        <v>---</v>
+      </c>
+      <c r="F100" t="str">
+        <v>7 m</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>SERENE [GB]</v>
+      </c>
+      <c r="B101" t="str">
+        <v>2023-02-28 18:50</v>
+      </c>
+      <c r="C101" t="str">
+        <v>---</v>
+      </c>
+      <c r="D101" t="str">
+        <v>---</v>
+      </c>
+      <c r="E101" t="str">
+        <v>---</v>
+      </c>
+      <c r="F101" t="str">
+        <v>82 m</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>CATTLEYA [DK]</v>
+      </c>
+      <c r="B102" t="str">
+        <v>2023-02-10 16:37</v>
+      </c>
+      <c r="C102" t="str">
+        <v>2,500 Tons</v>
+      </c>
+      <c r="D102" t="str">
+        <v>1,950 Tons</v>
+      </c>
+      <c r="E102" t="str">
+        <v>2013</v>
+      </c>
+      <c r="F102" t="str">
+        <v>70 m</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F77"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F102"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/generated/vessels-in-ports.xlsx
+++ b/generated/vessels-in-ports.xlsx
@@ -424,10 +424,10 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>FRU.LUNDSGAARD SG17 [DK]</v>
+        <v>ARA [NL]</v>
       </c>
       <c r="B3" t="str">
-        <v>2023-05-23 03:55</v>
+        <v>2023-05-19 16:02</v>
       </c>
       <c r="C3" t="str">
         <v>---</v>
@@ -439,15 +439,15 @@
         <v>---</v>
       </c>
       <c r="F3" t="str">
-        <v>10 m</v>
+        <v>25 m</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>ANTARES [DK]</v>
+        <v>NAUTILUS [NL]</v>
       </c>
       <c r="B4" t="str">
-        <v>2023-05-22 18:50</v>
+        <v>2023-05-19 14:26</v>
       </c>
       <c r="C4" t="str">
         <v>---</v>
@@ -459,15 +459,15 @@
         <v>---</v>
       </c>
       <c r="F4" t="str">
-        <v>9 m</v>
+        <v>24 m</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>ORION [DK]</v>
+        <v>RODIE [NL]</v>
       </c>
       <c r="B5" t="str">
-        <v>2023-05-22 17:57</v>
+        <v>2023-05-19 11:07</v>
       </c>
       <c r="C5" t="str">
         <v>---</v>
@@ -479,15 +479,15 @@
         <v>---</v>
       </c>
       <c r="F5" t="str">
-        <v>10 m</v>
+        <v>17 m</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>LARA [DE]</v>
+        <v>DEMI-K [NL]</v>
       </c>
       <c r="B6" t="str">
-        <v>2023-05-22 12:38</v>
+        <v>2023-05-19 06:38</v>
       </c>
       <c r="C6" t="str">
         <v>---</v>
@@ -499,15 +499,15 @@
         <v>---</v>
       </c>
       <c r="F6" t="str">
-        <v>15 m</v>
+        <v>17 m</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>RESCUE MORTEN STAGE [DK]</v>
+        <v>SEA FIRE [NL]</v>
       </c>
       <c r="B7" t="str">
-        <v>2023-05-22 05:39</v>
+        <v>2023-05-17 12:35</v>
       </c>
       <c r="C7" t="str">
         <v>---</v>
@@ -519,15 +519,15 @@
         <v>---</v>
       </c>
       <c r="F7" t="str">
-        <v>16 m</v>
+        <v>11 m</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>SARON S158 [DK]</v>
+        <v>SVANIC [KN]</v>
       </c>
       <c r="B8" t="str">
-        <v>2023-05-22 02:29</v>
+        <v>2023-05-16 12:40</v>
       </c>
       <c r="C8" t="str">
         <v>---</v>
@@ -544,10 +544,10 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>BLUE-FIN 2 [DK]</v>
+        <v>JOOP RUTTE 1 [NL]</v>
       </c>
       <c r="B9" t="str">
-        <v>2023-05-21 15:12</v>
+        <v>2023-05-16 11:15</v>
       </c>
       <c r="C9" t="str">
         <v>---</v>
@@ -559,15 +559,15 @@
         <v>---</v>
       </c>
       <c r="F9" t="str">
-        <v>10 m</v>
+        <v>12 m</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>MUDDI [DK]</v>
+        <v>SUERTE [NL]</v>
       </c>
       <c r="B10" t="str">
-        <v>2023-05-21 13:27</v>
+        <v>2023-05-15 15:00</v>
       </c>
       <c r="C10" t="str">
         <v>---</v>
@@ -579,15 +579,15 @@
         <v>---</v>
       </c>
       <c r="F10" t="str">
-        <v>12 m</v>
+        <v>13 m</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>WINDRIDER III [NO]</v>
+        <v>SAMARE [NL]</v>
       </c>
       <c r="B11" t="str">
-        <v>2023-05-21 12:38</v>
+        <v>2023-05-15 07:57</v>
       </c>
       <c r="C11" t="str">
         <v>---</v>
@@ -599,15 +599,15 @@
         <v>---</v>
       </c>
       <c r="F11" t="str">
-        <v>13 m</v>
+        <v>10 m</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>STRAND SENIOR MOB [NO]</v>
+        <v>CANVASS [NL]</v>
       </c>
       <c r="B12" t="str">
-        <v>2023-05-21 12:03</v>
+        <v>2023-05-14 13:16</v>
       </c>
       <c r="C12" t="str">
         <v>---</v>
@@ -619,15 +619,15 @@
         <v>---</v>
       </c>
       <c r="F12" t="str">
-        <v>---</v>
+        <v>15 m</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>BELLA DIVER [DK]</v>
+        <v>PALLAS [NL]</v>
       </c>
       <c r="B13" t="str">
-        <v>2023-05-21 11:39</v>
+        <v>2023-05-14 11:59</v>
       </c>
       <c r="C13" t="str">
         <v>---</v>
@@ -639,15 +639,15 @@
         <v>---</v>
       </c>
       <c r="F13" t="str">
-        <v>0 m</v>
+        <v>10 m</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>O 159 RANDI [DK]</v>
+        <v>HEMBRUG 1 [NL]</v>
       </c>
       <c r="B14" t="str">
-        <v>2023-05-21 11:21</v>
+        <v>2023-05-13 15:55</v>
       </c>
       <c r="C14" t="str">
         <v>---</v>
@@ -659,15 +659,15 @@
         <v>---</v>
       </c>
       <c r="F14" t="str">
-        <v>21 m</v>
+        <v>35 m</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>POLLO [DK]</v>
+        <v>AKERSLOOT [NL]</v>
       </c>
       <c r="B15" t="str">
-        <v>2023-05-21 08:37</v>
+        <v>2023-05-12 09:39</v>
       </c>
       <c r="C15" t="str">
         <v>---</v>
@@ -679,15 +679,15 @@
         <v>---</v>
       </c>
       <c r="F15" t="str">
-        <v>8 m</v>
+        <v>14 m</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>S61  NORDAN [DK]</v>
+        <v>SPES [NL]</v>
       </c>
       <c r="B16" t="str">
-        <v>2023-05-21 08:15</v>
+        <v>2023-05-10 18:15</v>
       </c>
       <c r="C16" t="str">
         <v>---</v>
@@ -699,15 +699,15 @@
         <v>---</v>
       </c>
       <c r="F16" t="str">
-        <v>8 m</v>
+        <v>15 m</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>HAVLIT [DK]</v>
+        <v>FIP 2.0 [NL]</v>
       </c>
       <c r="B17" t="str">
-        <v>2023-05-21 05:59</v>
+        <v>2023-05-07 09:14</v>
       </c>
       <c r="C17" t="str">
         <v>---</v>
@@ -719,15 +719,15 @@
         <v>---</v>
       </c>
       <c r="F17" t="str">
-        <v>7 m</v>
+        <v>11 m</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>JOY [DK]</v>
+        <v>TRUI [NL]</v>
       </c>
       <c r="B18" t="str">
-        <v>2023-05-20 14:35</v>
+        <v>2023-05-07 08:20</v>
       </c>
       <c r="C18" t="str">
         <v>---</v>
@@ -739,15 +739,15 @@
         <v>---</v>
       </c>
       <c r="F18" t="str">
-        <v>0 m</v>
+        <v>10 m</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>TUNA-BIRD [DK]</v>
+        <v>ENCANTO [NL]</v>
       </c>
       <c r="B19" t="str">
-        <v>2023-05-20 14:14</v>
+        <v>2023-05-06 10:15</v>
       </c>
       <c r="C19" t="str">
         <v>---</v>
@@ -759,15 +759,15 @@
         <v>---</v>
       </c>
       <c r="F19" t="str">
-        <v>9 m</v>
+        <v>17 m</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>DOLCE VITA [DK]</v>
+        <v>LOUA'HAILEY</v>
       </c>
       <c r="B20" t="str">
-        <v>2023-05-20 13:35</v>
+        <v>2023-05-01 12:02</v>
       </c>
       <c r="C20" t="str">
         <v>---</v>
@@ -779,15 +779,15 @@
         <v>---</v>
       </c>
       <c r="F20" t="str">
-        <v>7 m</v>
+        <v>11 m</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>OBERON [DK]</v>
+        <v>JACOB VAN RUISDAEL [NL]</v>
       </c>
       <c r="B21" t="str">
-        <v>2023-05-20 12:10</v>
+        <v>2023-05-01 06:49</v>
       </c>
       <c r="C21" t="str">
         <v>---</v>
@@ -799,15 +799,15 @@
         <v>---</v>
       </c>
       <c r="F21" t="str">
-        <v>17 m</v>
+        <v>18 m</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>BLOEKK [DK]</v>
+        <v>NEW WAVE [NL]</v>
       </c>
       <c r="B22" t="str">
-        <v>2023-05-20 09:34</v>
+        <v>2023-04-30 15:47</v>
       </c>
       <c r="C22" t="str">
         <v>---</v>
@@ -819,15 +819,15 @@
         <v>---</v>
       </c>
       <c r="F22" t="str">
-        <v>10 m</v>
+        <v>15 m</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>PAKALOLO II [NO]</v>
+        <v>JOSEPHINE [NL]</v>
       </c>
       <c r="B23" t="str">
-        <v>2023-05-19 19:50</v>
+        <v>2023-04-28 09:06</v>
       </c>
       <c r="C23" t="str">
         <v>---</v>
@@ -839,15 +839,15 @@
         <v>---</v>
       </c>
       <c r="F23" t="str">
-        <v>9 m</v>
+        <v>14 m</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>SKAWLINK 1 [DK]</v>
+        <v>ELLY GLASIUS [NL]</v>
       </c>
       <c r="B24" t="str">
-        <v>2023-05-19 15:32</v>
+        <v>2023-04-27 20:01</v>
       </c>
       <c r="C24" t="str">
         <v>---</v>
@@ -859,15 +859,15 @@
         <v>---</v>
       </c>
       <c r="F24" t="str">
-        <v>12 m</v>
+        <v>25 m</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>CHRISTIAN I GROTINUM [FO]</v>
+        <v>BOOT 2 [NL]</v>
       </c>
       <c r="B25" t="str">
-        <v>2023-05-18 20:54</v>
+        <v>2023-04-27 14:34</v>
       </c>
       <c r="C25" t="str">
         <v>---</v>
@@ -879,15 +879,15 @@
         <v>---</v>
       </c>
       <c r="F25" t="str">
-        <v>89 m</v>
+        <v>28 m</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>NJORD [DK]</v>
+        <v>UITERTON [NL]</v>
       </c>
       <c r="B26" t="str">
-        <v>2023-05-18 13:18</v>
+        <v>2023-04-22 11:51</v>
       </c>
       <c r="C26" t="str">
         <v>---</v>
@@ -899,15 +899,15 @@
         <v>---</v>
       </c>
       <c r="F26" t="str">
-        <v>11 m</v>
+        <v>12 m</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>LOKE [DK]</v>
+        <v>SHINKAI [MH]</v>
       </c>
       <c r="B27" t="str">
-        <v>2023-05-17 21:51</v>
+        <v>2023-04-13 08:00</v>
       </c>
       <c r="C27" t="str">
         <v>---</v>
@@ -919,15 +919,15 @@
         <v>---</v>
       </c>
       <c r="F27" t="str">
-        <v>15 m</v>
+        <v>55 m</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>NORDSKOV AS238 [DK]</v>
+        <v>ELIZA [NL]</v>
       </c>
       <c r="B28" t="str">
-        <v>2023-05-15 01:33</v>
+        <v>2023-04-12 21:21</v>
       </c>
       <c r="C28" t="str">
         <v>---</v>
@@ -939,35 +939,35 @@
         <v>---</v>
       </c>
       <c r="F28" t="str">
-        <v>20 m</v>
+        <v>10 m</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>MARGRET [IS]</v>
+        <v>MARPOL 16 [NL]</v>
       </c>
       <c r="B29" t="str">
-        <v>2023-05-14 18:11</v>
+        <v>2023-04-11 15:44</v>
       </c>
       <c r="C29" t="str">
-        <v>2,990 Tons</v>
+        <v>---</v>
       </c>
       <c r="D29" t="str">
-        <v>2,411 Tons</v>
+        <v>---</v>
       </c>
       <c r="E29" t="str">
-        <v>2007</v>
+        <v>---</v>
       </c>
       <c r="F29" t="str">
-        <v>72 m</v>
+        <v>23 m</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>STRAND SENIOR [NO]</v>
+        <v>SPERBER [NL]</v>
       </c>
       <c r="B30" t="str">
-        <v>2023-05-14 15:59</v>
+        <v>2023-04-09 13:33</v>
       </c>
       <c r="C30" t="str">
         <v>---</v>
@@ -979,15 +979,15 @@
         <v>---</v>
       </c>
       <c r="F30" t="str">
-        <v>75 m</v>
+        <v>19 m</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>JOHANNE BACH [DK]</v>
+        <v>JASON [NL]</v>
       </c>
       <c r="B31" t="str">
-        <v>2023-05-13 14:58</v>
+        <v>2023-04-05 10:19</v>
       </c>
       <c r="C31" t="str">
         <v>---</v>
@@ -999,15 +999,15 @@
         <v>---</v>
       </c>
       <c r="F31" t="str">
-        <v>8 m</v>
+        <v>110 m</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>LET' S SEA [DK]</v>
+        <v>VOLENDAM [NL]</v>
       </c>
       <c r="B32" t="str">
-        <v>2023-05-13 12:52</v>
+        <v>2023-03-22 10:58</v>
       </c>
       <c r="C32" t="str">
         <v>---</v>
@@ -1019,15 +1019,15 @@
         <v>---</v>
       </c>
       <c r="F32" t="str">
-        <v>8 m</v>
+        <v>26 m</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>OKSOE [DK]</v>
+        <v>YESSLYNN [NL]</v>
       </c>
       <c r="B33" t="str">
-        <v>2023-05-13 07:27</v>
+        <v>2023-03-07 21:53</v>
       </c>
       <c r="C33" t="str">
         <v>---</v>
@@ -1039,35 +1039,35 @@
         <v>---</v>
       </c>
       <c r="F33" t="str">
-        <v>7 m</v>
+        <v>60 m</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>STONEWELL UNITY [LR]</v>
+        <v>AIMEE [NL]</v>
       </c>
       <c r="B34" t="str">
-        <v>2023-05-09 04:16</v>
+        <v>2023-02-21 18:46</v>
       </c>
       <c r="C34" t="str">
-        <v>33,217 Tons</v>
+        <v>---</v>
       </c>
       <c r="D34" t="str">
-        <v>22,863 Tons</v>
+        <v>---</v>
       </c>
       <c r="E34" t="str">
-        <v>2012</v>
+        <v>---</v>
       </c>
       <c r="F34" t="str">
-        <v>178 m</v>
+        <v>17 m</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>MINGE [LT]</v>
+        <v>ANNEMARIE [NL]</v>
       </c>
       <c r="B35" t="str">
-        <v>2023-05-04 09:51</v>
+        <v>2023-02-18 14:00</v>
       </c>
       <c r="C35" t="str">
         <v>---</v>
@@ -1079,55 +1079,55 @@
         <v>---</v>
       </c>
       <c r="F35" t="str">
-        <v>37 m</v>
+        <v>68 m</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>GILIJA [LT]</v>
+        <v>ALBATROS [GB]</v>
       </c>
       <c r="B36" t="str">
-        <v>2023-05-02 12:50</v>
+        <v>2023-02-08 12:54</v>
       </c>
       <c r="C36" t="str">
         <v>---</v>
       </c>
       <c r="D36" t="str">
-        <v>543 Tons</v>
+        <v>---</v>
       </c>
       <c r="E36" t="str">
-        <v>1969</v>
+        <v>---</v>
       </c>
       <c r="F36" t="str">
-        <v>50 m</v>
+        <v>28 m</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>NEPTUNE [IE]</v>
+        <v>HUNTETUG [DE]</v>
       </c>
       <c r="B37" t="str">
-        <v>2023-05-01 13:24</v>
+        <v>2022-12-14 11:41</v>
       </c>
       <c r="C37" t="str">
-        <v>800 Tons</v>
+        <v>---</v>
       </c>
       <c r="D37" t="str">
-        <v>798 Tons</v>
+        <v>---</v>
       </c>
       <c r="E37" t="str">
-        <v>2003</v>
+        <v>---</v>
       </c>
       <c r="F37" t="str">
-        <v>40 m</v>
+        <v>43 m</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>TOVE [LT]</v>
+        <v>GWEN-D [NL]</v>
       </c>
       <c r="B38" t="str">
-        <v>2023-04-28 02:27</v>
+        <v>2022-11-20 11:04</v>
       </c>
       <c r="C38" t="str">
         <v>---</v>
@@ -1139,15 +1139,15 @@
         <v>---</v>
       </c>
       <c r="F38" t="str">
-        <v>33 m</v>
+        <v>12 m</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>HAVFJORD [NO]</v>
+        <v>WOOHOOO [NL]</v>
       </c>
       <c r="B39" t="str">
-        <v>2023-04-25 04:21</v>
+        <v>2022-10-28 18:02</v>
       </c>
       <c r="C39" t="str">
         <v>---</v>
@@ -1159,15 +1159,15 @@
         <v>---</v>
       </c>
       <c r="F39" t="str">
-        <v>36 m</v>
+        <v>0 m</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>SKAWLINK 3 [DK]</v>
+        <v>IVAR [NL]</v>
       </c>
       <c r="B40" t="str">
-        <v>2023-04-23 16:27</v>
+        <v>2022-10-17 06:43</v>
       </c>
       <c r="C40" t="str">
         <v>---</v>
@@ -1179,15 +1179,15 @@
         <v>---</v>
       </c>
       <c r="F40" t="str">
-        <v>21 m</v>
+        <v>20 m</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>CECILIE [DK]</v>
+        <v>DOBBER [NL]</v>
       </c>
       <c r="B41" t="str">
-        <v>2023-04-15 21:45</v>
+        <v>2022-09-20 11:46</v>
       </c>
       <c r="C41" t="str">
         <v>---</v>
@@ -1199,55 +1199,55 @@
         <v>---</v>
       </c>
       <c r="F41" t="str">
-        <v>8 m</v>
+        <v>15 m</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>ELLEN BACH [DE]</v>
+        <v>SCHEELENKUHLEN [NL]</v>
       </c>
       <c r="B42" t="str">
-        <v>2023-04-14 13:46</v>
+        <v>2022-09-11 13:57</v>
       </c>
       <c r="C42" t="str">
         <v>---</v>
       </c>
       <c r="D42" t="str">
-        <v>759 Tons</v>
+        <v>---</v>
       </c>
       <c r="E42" t="str">
-        <v>1999</v>
+        <v>---</v>
       </c>
       <c r="F42" t="str">
-        <v>50 m</v>
+        <v>21 m</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>LEINEBJOERN [NO]</v>
+        <v>LOBKE II [NL]</v>
       </c>
       <c r="B43" t="str">
-        <v>2023-04-13 09:37</v>
+        <v>2022-08-02 13:28</v>
       </c>
       <c r="C43" t="str">
-        <v>2,500 Tons</v>
+        <v>---</v>
       </c>
       <c r="D43" t="str">
-        <v>1,828 Tons</v>
+        <v>---</v>
       </c>
       <c r="E43" t="str">
-        <v>2012</v>
+        <v>---</v>
       </c>
       <c r="F43" t="str">
-        <v>68 m</v>
+        <v>13 m</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>STEINEVIK [NO]</v>
+        <v>DA VINCI [NL]</v>
       </c>
       <c r="B44" t="str">
-        <v>2023-04-11 09:35</v>
+        <v>2022-05-10 10:25</v>
       </c>
       <c r="C44" t="str">
         <v>---</v>
@@ -1259,15 +1259,15 @@
         <v>---</v>
       </c>
       <c r="F44" t="str">
-        <v>72 m</v>
+        <v>15 m</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>VOYAGER [GB]</v>
+        <v>LISABELLE [MT]</v>
       </c>
       <c r="B45" t="str">
-        <v>2023-04-10 13:59</v>
+        <v>2022-05-03 09:36</v>
       </c>
       <c r="C45" t="str">
         <v>---</v>
@@ -1279,15 +1279,15 @@
         <v>---</v>
       </c>
       <c r="F45" t="str">
-        <v>87 m</v>
+        <v>110 m</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>SALTY [DK]</v>
+        <v>NORA [DE]</v>
       </c>
       <c r="B46" t="str">
-        <v>2023-04-06 01:03</v>
+        <v>2022-03-21 17:50</v>
       </c>
       <c r="C46" t="str">
         <v>---</v>
@@ -1299,15 +1299,15 @@
         <v>---</v>
       </c>
       <c r="F46" t="str">
-        <v>10 m</v>
+        <v>40 m</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>MARIE FN 548 [DK]</v>
+        <v>IWA [NL]</v>
       </c>
       <c r="B47" t="str">
-        <v>2023-03-28 16:05</v>
+        <v>2022-01-27 16:45</v>
       </c>
       <c r="C47" t="str">
         <v>---</v>
@@ -1319,15 +1319,15 @@
         <v>---</v>
       </c>
       <c r="F47" t="str">
-        <v>10 m</v>
+        <v>16 m</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>AINE [IE]</v>
+        <v>OMEGA [NL]</v>
       </c>
       <c r="B48" t="str">
-        <v>2023-03-23 01:50</v>
+        <v>---</v>
       </c>
       <c r="C48" t="str">
         <v>---</v>
@@ -1336,18 +1336,15 @@
         <v>---</v>
       </c>
       <c r="E48" t="str">
-        <v>---</v>
-      </c>
-      <c r="F48" t="str">
-        <v>57 m</v>
+        <v>12 m</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>ALTAIRE [GB]</v>
+        <v>SAGITTA [NL]</v>
       </c>
       <c r="B49" t="str">
-        <v>2023-03-16 23:30</v>
+        <v>---</v>
       </c>
       <c r="C49" t="str">
         <v>---</v>
@@ -1356,18 +1353,15 @@
         <v>---</v>
       </c>
       <c r="E49" t="str">
-        <v>---</v>
-      </c>
-      <c r="F49" t="str">
-        <v>80 m</v>
+        <v>55 m</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>PERNILLE [DK]</v>
+        <v>SIMON CARMIGGELD [NL]</v>
       </c>
       <c r="B50" t="str">
-        <v>2023-03-02 12:12</v>
+        <v>---</v>
       </c>
       <c r="C50" t="str">
         <v>---</v>
@@ -1376,18 +1370,15 @@
         <v>---</v>
       </c>
       <c r="E50" t="str">
-        <v>---</v>
-      </c>
-      <c r="F50" t="str">
-        <v>7 m</v>
+        <v>15 m</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>SERENE [GB]</v>
+        <v>SUNSET ROSE [NL]</v>
       </c>
       <c r="B51" t="str">
-        <v>2023-02-28 18:50</v>
+        <v>---</v>
       </c>
       <c r="C51" t="str">
         <v>---</v>
@@ -1396,38 +1387,32 @@
         <v>---</v>
       </c>
       <c r="E51" t="str">
-        <v>---</v>
-      </c>
-      <c r="F51" t="str">
-        <v>82 m</v>
+        <v>12 m</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>CATTLEYA [DK]</v>
+        <v>LIEFDE [NL]</v>
       </c>
       <c r="B52" t="str">
-        <v>2023-02-10 16:37</v>
+        <v>---</v>
       </c>
       <c r="C52" t="str">
-        <v>2,500 Tons</v>
+        <v>---</v>
       </c>
       <c r="D52" t="str">
-        <v>1,950 Tons</v>
+        <v>---</v>
       </c>
       <c r="E52" t="str">
-        <v>2013</v>
-      </c>
-      <c r="F52" t="str">
-        <v>70 m</v>
+        <v>32 m</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>FRU.LUNDSGAARD SG17 [DK]</v>
+        <v>ARA [NL]</v>
       </c>
       <c r="B53" t="str">
-        <v>2023-05-23 03:55</v>
+        <v>2023-05-19 16:02</v>
       </c>
       <c r="C53" t="str">
         <v>---</v>
@@ -1439,15 +1424,15 @@
         <v>---</v>
       </c>
       <c r="F53" t="str">
-        <v>10 m</v>
+        <v>25 m</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>ANTARES [DK]</v>
+        <v>NAUTILUS [NL]</v>
       </c>
       <c r="B54" t="str">
-        <v>2023-05-22 18:50</v>
+        <v>2023-05-19 14:26</v>
       </c>
       <c r="C54" t="str">
         <v>---</v>
@@ -1459,15 +1444,15 @@
         <v>---</v>
       </c>
       <c r="F54" t="str">
-        <v>9 m</v>
+        <v>24 m</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>ORION [DK]</v>
+        <v>RODIE [NL]</v>
       </c>
       <c r="B55" t="str">
-        <v>2023-05-22 17:57</v>
+        <v>2023-05-19 11:07</v>
       </c>
       <c r="C55" t="str">
         <v>---</v>
@@ -1479,15 +1464,15 @@
         <v>---</v>
       </c>
       <c r="F55" t="str">
-        <v>10 m</v>
+        <v>17 m</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>LARA [DE]</v>
+        <v>DEMI-K [NL]</v>
       </c>
       <c r="B56" t="str">
-        <v>2023-05-22 12:38</v>
+        <v>2023-05-19 06:38</v>
       </c>
       <c r="C56" t="str">
         <v>---</v>
@@ -1499,15 +1484,15 @@
         <v>---</v>
       </c>
       <c r="F56" t="str">
-        <v>15 m</v>
+        <v>17 m</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>RESCUE MORTEN STAGE [DK]</v>
+        <v>SEA FIRE [NL]</v>
       </c>
       <c r="B57" t="str">
-        <v>2023-05-22 05:39</v>
+        <v>2023-05-17 12:35</v>
       </c>
       <c r="C57" t="str">
         <v>---</v>
@@ -1519,15 +1504,15 @@
         <v>---</v>
       </c>
       <c r="F57" t="str">
-        <v>16 m</v>
+        <v>11 m</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>SARON S158 [DK]</v>
+        <v>SVANIC [KN]</v>
       </c>
       <c r="B58" t="str">
-        <v>2023-05-22 02:29</v>
+        <v>2023-05-16 12:40</v>
       </c>
       <c r="C58" t="str">
         <v>---</v>
@@ -1544,10 +1529,10 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>BLUE-FIN 2 [DK]</v>
+        <v>JOOP RUTTE 1 [NL]</v>
       </c>
       <c r="B59" t="str">
-        <v>2023-05-21 15:12</v>
+        <v>2023-05-16 11:15</v>
       </c>
       <c r="C59" t="str">
         <v>---</v>
@@ -1559,15 +1544,15 @@
         <v>---</v>
       </c>
       <c r="F59" t="str">
-        <v>10 m</v>
+        <v>12 m</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>MUDDI [DK]</v>
+        <v>SUERTE [NL]</v>
       </c>
       <c r="B60" t="str">
-        <v>2023-05-21 13:27</v>
+        <v>2023-05-15 15:00</v>
       </c>
       <c r="C60" t="str">
         <v>---</v>
@@ -1579,15 +1564,15 @@
         <v>---</v>
       </c>
       <c r="F60" t="str">
-        <v>12 m</v>
+        <v>13 m</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>WINDRIDER III [NO]</v>
+        <v>SAMARE [NL]</v>
       </c>
       <c r="B61" t="str">
-        <v>2023-05-21 12:38</v>
+        <v>2023-05-15 07:57</v>
       </c>
       <c r="C61" t="str">
         <v>---</v>
@@ -1599,15 +1584,15 @@
         <v>---</v>
       </c>
       <c r="F61" t="str">
-        <v>13 m</v>
+        <v>10 m</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>STRAND SENIOR MOB [NO]</v>
+        <v>CANVASS [NL]</v>
       </c>
       <c r="B62" t="str">
-        <v>2023-05-21 12:03</v>
+        <v>2023-05-14 13:16</v>
       </c>
       <c r="C62" t="str">
         <v>---</v>
@@ -1619,15 +1604,15 @@
         <v>---</v>
       </c>
       <c r="F62" t="str">
-        <v>---</v>
+        <v>15 m</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>BELLA DIVER [DK]</v>
+        <v>PALLAS [NL]</v>
       </c>
       <c r="B63" t="str">
-        <v>2023-05-21 11:39</v>
+        <v>2023-05-14 11:59</v>
       </c>
       <c r="C63" t="str">
         <v>---</v>
@@ -1639,15 +1624,15 @@
         <v>---</v>
       </c>
       <c r="F63" t="str">
-        <v>0 m</v>
+        <v>10 m</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>O 159 RANDI [DK]</v>
+        <v>HEMBRUG 1 [NL]</v>
       </c>
       <c r="B64" t="str">
-        <v>2023-05-21 11:21</v>
+        <v>2023-05-13 15:55</v>
       </c>
       <c r="C64" t="str">
         <v>---</v>
@@ -1659,15 +1644,15 @@
         <v>---</v>
       </c>
       <c r="F64" t="str">
-        <v>21 m</v>
+        <v>35 m</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>POLLO [DK]</v>
+        <v>AKERSLOOT [NL]</v>
       </c>
       <c r="B65" t="str">
-        <v>2023-05-21 08:37</v>
+        <v>2023-05-12 09:39</v>
       </c>
       <c r="C65" t="str">
         <v>---</v>
@@ -1679,15 +1664,15 @@
         <v>---</v>
       </c>
       <c r="F65" t="str">
-        <v>8 m</v>
+        <v>14 m</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>S61  NORDAN [DK]</v>
+        <v>SPES [NL]</v>
       </c>
       <c r="B66" t="str">
-        <v>2023-05-21 08:15</v>
+        <v>2023-05-10 18:15</v>
       </c>
       <c r="C66" t="str">
         <v>---</v>
@@ -1699,15 +1684,15 @@
         <v>---</v>
       </c>
       <c r="F66" t="str">
-        <v>8 m</v>
+        <v>15 m</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>HAVLIT [DK]</v>
+        <v>FIP 2.0 [NL]</v>
       </c>
       <c r="B67" t="str">
-        <v>2023-05-21 05:59</v>
+        <v>2023-05-07 09:14</v>
       </c>
       <c r="C67" t="str">
         <v>---</v>
@@ -1719,15 +1704,15 @@
         <v>---</v>
       </c>
       <c r="F67" t="str">
-        <v>7 m</v>
+        <v>11 m</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>JOY [DK]</v>
+        <v>TRUI [NL]</v>
       </c>
       <c r="B68" t="str">
-        <v>2023-05-20 14:35</v>
+        <v>2023-05-07 08:20</v>
       </c>
       <c r="C68" t="str">
         <v>---</v>
@@ -1739,15 +1724,15 @@
         <v>---</v>
       </c>
       <c r="F68" t="str">
-        <v>0 m</v>
+        <v>10 m</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>TUNA-BIRD [DK]</v>
+        <v>ENCANTO [NL]</v>
       </c>
       <c r="B69" t="str">
-        <v>2023-05-20 14:14</v>
+        <v>2023-05-06 10:15</v>
       </c>
       <c r="C69" t="str">
         <v>---</v>
@@ -1759,15 +1744,15 @@
         <v>---</v>
       </c>
       <c r="F69" t="str">
-        <v>9 m</v>
+        <v>17 m</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>DOLCE VITA [DK]</v>
+        <v>LOUA'HAILEY</v>
       </c>
       <c r="B70" t="str">
-        <v>2023-05-20 13:35</v>
+        <v>2023-05-01 12:02</v>
       </c>
       <c r="C70" t="str">
         <v>---</v>
@@ -1779,15 +1764,15 @@
         <v>---</v>
       </c>
       <c r="F70" t="str">
-        <v>7 m</v>
+        <v>11 m</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>OBERON [DK]</v>
+        <v>JACOB VAN RUISDAEL [NL]</v>
       </c>
       <c r="B71" t="str">
-        <v>2023-05-20 12:10</v>
+        <v>2023-05-01 06:49</v>
       </c>
       <c r="C71" t="str">
         <v>---</v>
@@ -1799,15 +1784,15 @@
         <v>---</v>
       </c>
       <c r="F71" t="str">
-        <v>17 m</v>
+        <v>18 m</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>BLOEKK [DK]</v>
+        <v>NEW WAVE [NL]</v>
       </c>
       <c r="B72" t="str">
-        <v>2023-05-20 09:34</v>
+        <v>2023-04-30 15:47</v>
       </c>
       <c r="C72" t="str">
         <v>---</v>
@@ -1819,15 +1804,15 @@
         <v>---</v>
       </c>
       <c r="F72" t="str">
-        <v>10 m</v>
+        <v>15 m</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>PAKALOLO II [NO]</v>
+        <v>JOSEPHINE [NL]</v>
       </c>
       <c r="B73" t="str">
-        <v>2023-05-19 19:50</v>
+        <v>2023-04-28 09:06</v>
       </c>
       <c r="C73" t="str">
         <v>---</v>
@@ -1839,15 +1824,15 @@
         <v>---</v>
       </c>
       <c r="F73" t="str">
-        <v>9 m</v>
+        <v>14 m</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>SKAWLINK 1 [DK]</v>
+        <v>ELLY GLASIUS [NL]</v>
       </c>
       <c r="B74" t="str">
-        <v>2023-05-19 15:32</v>
+        <v>2023-04-27 20:01</v>
       </c>
       <c r="C74" t="str">
         <v>---</v>
@@ -1859,15 +1844,15 @@
         <v>---</v>
       </c>
       <c r="F74" t="str">
-        <v>12 m</v>
+        <v>25 m</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>CHRISTIAN I GROTINUM [FO]</v>
+        <v>BOOT 2 [NL]</v>
       </c>
       <c r="B75" t="str">
-        <v>2023-05-18 20:54</v>
+        <v>2023-04-27 14:34</v>
       </c>
       <c r="C75" t="str">
         <v>---</v>
@@ -1879,15 +1864,15 @@
         <v>---</v>
       </c>
       <c r="F75" t="str">
-        <v>89 m</v>
+        <v>28 m</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>NJORD [DK]</v>
+        <v>UITERTON [NL]</v>
       </c>
       <c r="B76" t="str">
-        <v>2023-05-18 13:18</v>
+        <v>2023-04-22 11:51</v>
       </c>
       <c r="C76" t="str">
         <v>---</v>
@@ -1899,15 +1884,15 @@
         <v>---</v>
       </c>
       <c r="F76" t="str">
-        <v>11 m</v>
+        <v>12 m</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>LOKE [DK]</v>
+        <v>SHINKAI [MH]</v>
       </c>
       <c r="B77" t="str">
-        <v>2023-05-17 21:51</v>
+        <v>2023-04-13 08:00</v>
       </c>
       <c r="C77" t="str">
         <v>---</v>
@@ -1919,15 +1904,15 @@
         <v>---</v>
       </c>
       <c r="F77" t="str">
-        <v>15 m</v>
+        <v>55 m</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>NORDSKOV AS238 [DK]</v>
+        <v>ELIZA [NL]</v>
       </c>
       <c r="B78" t="str">
-        <v>2023-05-15 01:33</v>
+        <v>2023-04-12 21:21</v>
       </c>
       <c r="C78" t="str">
         <v>---</v>
@@ -1939,35 +1924,35 @@
         <v>---</v>
       </c>
       <c r="F78" t="str">
-        <v>20 m</v>
+        <v>10 m</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>MARGRET [IS]</v>
+        <v>MARPOL 16 [NL]</v>
       </c>
       <c r="B79" t="str">
-        <v>2023-05-14 18:11</v>
+        <v>2023-04-11 15:44</v>
       </c>
       <c r="C79" t="str">
-        <v>2,990 Tons</v>
+        <v>---</v>
       </c>
       <c r="D79" t="str">
-        <v>2,411 Tons</v>
+        <v>---</v>
       </c>
       <c r="E79" t="str">
-        <v>2007</v>
+        <v>---</v>
       </c>
       <c r="F79" t="str">
-        <v>72 m</v>
+        <v>23 m</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>STRAND SENIOR [NO]</v>
+        <v>SPERBER [NL]</v>
       </c>
       <c r="B80" t="str">
-        <v>2023-05-14 15:59</v>
+        <v>2023-04-09 13:33</v>
       </c>
       <c r="C80" t="str">
         <v>---</v>
@@ -1979,15 +1964,15 @@
         <v>---</v>
       </c>
       <c r="F80" t="str">
-        <v>75 m</v>
+        <v>19 m</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>JOHANNE BACH [DK]</v>
+        <v>JASON [NL]</v>
       </c>
       <c r="B81" t="str">
-        <v>2023-05-13 14:58</v>
+        <v>2023-04-05 10:19</v>
       </c>
       <c r="C81" t="str">
         <v>---</v>
@@ -1999,15 +1984,15 @@
         <v>---</v>
       </c>
       <c r="F81" t="str">
-        <v>8 m</v>
+        <v>110 m</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>LET' S SEA [DK]</v>
+        <v>VOLENDAM [NL]</v>
       </c>
       <c r="B82" t="str">
-        <v>2023-05-13 12:52</v>
+        <v>2023-03-22 10:58</v>
       </c>
       <c r="C82" t="str">
         <v>---</v>
@@ -2019,15 +2004,15 @@
         <v>---</v>
       </c>
       <c r="F82" t="str">
-        <v>8 m</v>
+        <v>26 m</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>OKSOE [DK]</v>
+        <v>YESSLYNN [NL]</v>
       </c>
       <c r="B83" t="str">
-        <v>2023-05-13 07:27</v>
+        <v>2023-03-07 21:53</v>
       </c>
       <c r="C83" t="str">
         <v>---</v>
@@ -2039,35 +2024,35 @@
         <v>---</v>
       </c>
       <c r="F83" t="str">
-        <v>7 m</v>
+        <v>60 m</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>STONEWELL UNITY [LR]</v>
+        <v>AIMEE [NL]</v>
       </c>
       <c r="B84" t="str">
-        <v>2023-05-09 04:16</v>
+        <v>2023-02-21 18:46</v>
       </c>
       <c r="C84" t="str">
-        <v>33,217 Tons</v>
+        <v>---</v>
       </c>
       <c r="D84" t="str">
-        <v>22,863 Tons</v>
+        <v>---</v>
       </c>
       <c r="E84" t="str">
-        <v>2012</v>
+        <v>---</v>
       </c>
       <c r="F84" t="str">
-        <v>178 m</v>
+        <v>17 m</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>MINGE [LT]</v>
+        <v>ANNEMARIE [NL]</v>
       </c>
       <c r="B85" t="str">
-        <v>2023-05-04 09:51</v>
+        <v>2023-02-18 14:00</v>
       </c>
       <c r="C85" t="str">
         <v>---</v>
@@ -2079,55 +2064,55 @@
         <v>---</v>
       </c>
       <c r="F85" t="str">
-        <v>37 m</v>
+        <v>68 m</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>GILIJA [LT]</v>
+        <v>ALBATROS [GB]</v>
       </c>
       <c r="B86" t="str">
-        <v>2023-05-02 12:50</v>
+        <v>2023-02-08 12:54</v>
       </c>
       <c r="C86" t="str">
         <v>---</v>
       </c>
       <c r="D86" t="str">
-        <v>543 Tons</v>
+        <v>---</v>
       </c>
       <c r="E86" t="str">
-        <v>1969</v>
+        <v>---</v>
       </c>
       <c r="F86" t="str">
-        <v>50 m</v>
+        <v>28 m</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>NEPTUNE [IE]</v>
+        <v>HUNTETUG [DE]</v>
       </c>
       <c r="B87" t="str">
-        <v>2023-05-01 13:24</v>
+        <v>2022-12-14 11:41</v>
       </c>
       <c r="C87" t="str">
-        <v>800 Tons</v>
+        <v>---</v>
       </c>
       <c r="D87" t="str">
-        <v>798 Tons</v>
+        <v>---</v>
       </c>
       <c r="E87" t="str">
-        <v>2003</v>
+        <v>---</v>
       </c>
       <c r="F87" t="str">
-        <v>40 m</v>
+        <v>43 m</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>TOVE [LT]</v>
+        <v>GWEN-D [NL]</v>
       </c>
       <c r="B88" t="str">
-        <v>2023-04-28 02:27</v>
+        <v>2022-11-20 11:04</v>
       </c>
       <c r="C88" t="str">
         <v>---</v>
@@ -2139,15 +2124,15 @@
         <v>---</v>
       </c>
       <c r="F88" t="str">
-        <v>33 m</v>
+        <v>12 m</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>HAVFJORD [NO]</v>
+        <v>WOOHOOO [NL]</v>
       </c>
       <c r="B89" t="str">
-        <v>2023-04-25 04:21</v>
+        <v>2022-10-28 18:02</v>
       </c>
       <c r="C89" t="str">
         <v>---</v>
@@ -2159,15 +2144,15 @@
         <v>---</v>
       </c>
       <c r="F89" t="str">
-        <v>36 m</v>
+        <v>0 m</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>SKAWLINK 3 [DK]</v>
+        <v>IVAR [NL]</v>
       </c>
       <c r="B90" t="str">
-        <v>2023-04-23 16:27</v>
+        <v>2022-10-17 06:43</v>
       </c>
       <c r="C90" t="str">
         <v>---</v>
@@ -2179,15 +2164,15 @@
         <v>---</v>
       </c>
       <c r="F90" t="str">
-        <v>21 m</v>
+        <v>20 m</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>CECILIE [DK]</v>
+        <v>DOBBER [NL]</v>
       </c>
       <c r="B91" t="str">
-        <v>2023-04-15 21:45</v>
+        <v>2022-09-20 11:46</v>
       </c>
       <c r="C91" t="str">
         <v>---</v>
@@ -2199,55 +2184,55 @@
         <v>---</v>
       </c>
       <c r="F91" t="str">
-        <v>8 m</v>
+        <v>15 m</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>ELLEN BACH [DE]</v>
+        <v>SCHEELENKUHLEN [NL]</v>
       </c>
       <c r="B92" t="str">
-        <v>2023-04-14 13:46</v>
+        <v>2022-09-11 13:57</v>
       </c>
       <c r="C92" t="str">
         <v>---</v>
       </c>
       <c r="D92" t="str">
-        <v>759 Tons</v>
+        <v>---</v>
       </c>
       <c r="E92" t="str">
-        <v>1999</v>
+        <v>---</v>
       </c>
       <c r="F92" t="str">
-        <v>50 m</v>
+        <v>21 m</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>LEINEBJOERN [NO]</v>
+        <v>LOBKE II [NL]</v>
       </c>
       <c r="B93" t="str">
-        <v>2023-04-13 09:37</v>
+        <v>2022-08-02 13:28</v>
       </c>
       <c r="C93" t="str">
-        <v>2,500 Tons</v>
+        <v>---</v>
       </c>
       <c r="D93" t="str">
-        <v>1,828 Tons</v>
+        <v>---</v>
       </c>
       <c r="E93" t="str">
-        <v>2012</v>
+        <v>---</v>
       </c>
       <c r="F93" t="str">
-        <v>68 m</v>
+        <v>13 m</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>STEINEVIK [NO]</v>
+        <v>DA VINCI [NL]</v>
       </c>
       <c r="B94" t="str">
-        <v>2023-04-11 09:35</v>
+        <v>2022-05-10 10:25</v>
       </c>
       <c r="C94" t="str">
         <v>---</v>
@@ -2259,15 +2244,15 @@
         <v>---</v>
       </c>
       <c r="F94" t="str">
-        <v>72 m</v>
+        <v>15 m</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>VOYAGER [GB]</v>
+        <v>LISABELLE [MT]</v>
       </c>
       <c r="B95" t="str">
-        <v>2023-04-10 13:59</v>
+        <v>2022-05-03 09:36</v>
       </c>
       <c r="C95" t="str">
         <v>---</v>
@@ -2279,15 +2264,15 @@
         <v>---</v>
       </c>
       <c r="F95" t="str">
-        <v>87 m</v>
+        <v>110 m</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>SALTY [DK]</v>
+        <v>NORA [DE]</v>
       </c>
       <c r="B96" t="str">
-        <v>2023-04-06 01:03</v>
+        <v>2022-03-21 17:50</v>
       </c>
       <c r="C96" t="str">
         <v>---</v>
@@ -2299,15 +2284,15 @@
         <v>---</v>
       </c>
       <c r="F96" t="str">
-        <v>10 m</v>
+        <v>40 m</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>MARIE FN 548 [DK]</v>
+        <v>IWA [NL]</v>
       </c>
       <c r="B97" t="str">
-        <v>2023-03-28 16:05</v>
+        <v>2022-01-27 16:45</v>
       </c>
       <c r="C97" t="str">
         <v>---</v>
@@ -2319,15 +2304,15 @@
         <v>---</v>
       </c>
       <c r="F97" t="str">
-        <v>10 m</v>
+        <v>16 m</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>AINE [IE]</v>
+        <v>OMEGA [NL]</v>
       </c>
       <c r="B98" t="str">
-        <v>2023-03-23 01:50</v>
+        <v>---</v>
       </c>
       <c r="C98" t="str">
         <v>---</v>
@@ -2336,18 +2321,15 @@
         <v>---</v>
       </c>
       <c r="E98" t="str">
-        <v>---</v>
-      </c>
-      <c r="F98" t="str">
-        <v>57 m</v>
+        <v>12 m</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>ALTAIRE [GB]</v>
+        <v>SAGITTA [NL]</v>
       </c>
       <c r="B99" t="str">
-        <v>2023-03-16 23:30</v>
+        <v>---</v>
       </c>
       <c r="C99" t="str">
         <v>---</v>
@@ -2356,18 +2338,15 @@
         <v>---</v>
       </c>
       <c r="E99" t="str">
-        <v>---</v>
-      </c>
-      <c r="F99" t="str">
-        <v>80 m</v>
+        <v>55 m</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>PERNILLE [DK]</v>
+        <v>SIMON CARMIGGELD [NL]</v>
       </c>
       <c r="B100" t="str">
-        <v>2023-03-02 12:12</v>
+        <v>---</v>
       </c>
       <c r="C100" t="str">
         <v>---</v>
@@ -2376,18 +2355,15 @@
         <v>---</v>
       </c>
       <c r="E100" t="str">
-        <v>---</v>
-      </c>
-      <c r="F100" t="str">
-        <v>7 m</v>
+        <v>15 m</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>SERENE [GB]</v>
+        <v>SUNSET ROSE [NL]</v>
       </c>
       <c r="B101" t="str">
-        <v>2023-02-28 18:50</v>
+        <v>---</v>
       </c>
       <c r="C101" t="str">
         <v>---</v>
@@ -2396,30 +2372,24 @@
         <v>---</v>
       </c>
       <c r="E101" t="str">
-        <v>---</v>
-      </c>
-      <c r="F101" t="str">
-        <v>82 m</v>
+        <v>12 m</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>CATTLEYA [DK]</v>
+        <v>LIEFDE [NL]</v>
       </c>
       <c r="B102" t="str">
-        <v>2023-02-10 16:37</v>
+        <v>---</v>
       </c>
       <c r="C102" t="str">
-        <v>2,500 Tons</v>
+        <v>---</v>
       </c>
       <c r="D102" t="str">
-        <v>1,950 Tons</v>
+        <v>---</v>
       </c>
       <c r="E102" t="str">
-        <v>2013</v>
-      </c>
-      <c r="F102" t="str">
-        <v>70 m</v>
+        <v>32 m</v>
       </c>
     </row>
   </sheetData>
